--- a/Mechanics/Senior Design Purchase Request (Adafruit).xlsx
+++ b/Mechanics/Senior Design Purchase Request (Adafruit).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halus\Documents\ECE477\ECE477\Mechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75E3674-C6D2-49A5-A720-08477EB15A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD4E4E5-EF54-48E1-A733-8FF9BA4F3E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{6202AF7F-2BD1-4FB3-9299-BDDA5367661D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Vendor:</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>16 / Air Hockey Robot</t>
+  </si>
+  <si>
+    <t>ASAP</t>
   </si>
 </sst>
 </file>
@@ -398,13 +401,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -425,46 +464,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,7 +792,7 @@
   <dimension ref="B1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E16" sqref="E16:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -809,186 +812,190 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.65" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="2" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
       <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
+      <c r="O2" s="31">
+        <v>45190</v>
+      </c>
+      <c r="P2" s="32"/>
     </row>
     <row r="3" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="F3" s="22" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="F3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
       <c r="N3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27"/>
+      <c r="O3" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="32"/>
     </row>
     <row r="4" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="5" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="F5" s="19" t="s">
+      <c r="D5" s="19"/>
+      <c r="F5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
       <c r="N5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="12"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19"/>
     </row>
     <row r="6" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="F6" s="22" t="s">
+      <c r="D6" s="19"/>
+      <c r="F6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
       <c r="N6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="12"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="19"/>
       <c r="N7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="24">
         <v>7</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="19"/>
+      <c r="F8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
       <c r="N8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="12"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="19"/>
     </row>
     <row r="9" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="F9" s="22">
+      <c r="D9" s="19"/>
+      <c r="F9" s="21">
         <v>7600000796</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
       <c r="N9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="12"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="11" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
       <c r="O11" s="9" t="s">
         <v>15</v>
       </c>
@@ -1000,23 +1007,23 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="6">
         <v>2</v>
       </c>
@@ -1029,19 +1036,19 @@
       </c>
     </row>
     <row r="13" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
       <c r="O13" s="6"/>
       <c r="P13" s="7">
         <v>0</v>
@@ -1052,19 +1059,19 @@
       </c>
     </row>
     <row r="14" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
       <c r="O14" s="6"/>
       <c r="P14" s="7">
         <v>0</v>
@@ -1075,19 +1082,19 @@
       </c>
     </row>
     <row r="15" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
       <c r="O15" s="6"/>
       <c r="P15" s="7">
         <v>0</v>
@@ -1098,19 +1105,19 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
       <c r="O16" s="6"/>
       <c r="P16" s="7">
         <v>0</v>
@@ -1121,19 +1128,19 @@
       </c>
     </row>
     <row r="17" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
       <c r="O17" s="6"/>
       <c r="P17" s="7">
         <v>0</v>
@@ -1144,19 +1151,19 @@
       </c>
     </row>
     <row r="18" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
       <c r="O18" s="6"/>
       <c r="P18" s="7">
         <v>0</v>
@@ -1167,19 +1174,19 @@
       </c>
     </row>
     <row r="19" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
       <c r="O19" s="6"/>
       <c r="P19" s="7">
         <v>0</v>
@@ -1190,19 +1197,19 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="6"/>
       <c r="P20" s="7">
         <v>0</v>
@@ -1213,19 +1220,19 @@
       </c>
     </row>
     <row r="21" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
       <c r="O21" s="6"/>
       <c r="P21" s="7">
         <v>0</v>
@@ -1236,19 +1243,19 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
       <c r="O22" s="6"/>
       <c r="P22" s="7">
         <v>0</v>
@@ -1259,19 +1266,19 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
       <c r="O23" s="6"/>
       <c r="P23" s="7">
         <v>0</v>
@@ -1282,19 +1289,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
       <c r="O24" s="6"/>
       <c r="P24" s="7">
         <v>0</v>
@@ -1305,19 +1312,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
       <c r="O25" s="6"/>
       <c r="P25" s="7">
         <v>0</v>
@@ -1328,19 +1335,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
       <c r="O26" s="6"/>
       <c r="P26" s="7">
         <v>0</v>
@@ -1351,19 +1358,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
       <c r="O27" s="6"/>
       <c r="P27" s="7">
         <v>0</v>
@@ -1374,19 +1381,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
       <c r="O28" s="6"/>
       <c r="P28" s="7">
         <v>0</v>
@@ -1397,19 +1404,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
       <c r="O29" s="6"/>
       <c r="P29" s="7">
         <v>0</v>
@@ -1420,19 +1427,19 @@
       </c>
     </row>
     <row r="30" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
       <c r="O30" s="6"/>
       <c r="P30" s="7">
         <v>0</v>
@@ -1443,19 +1450,19 @@
       </c>
     </row>
     <row r="31" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
       <c r="O31" s="6"/>
       <c r="P31" s="7">
         <v>0</v>
@@ -1466,19 +1473,19 @@
       </c>
     </row>
     <row r="32" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
       <c r="O32" s="6"/>
       <c r="P32" s="7">
         <v>0</v>
@@ -1489,22 +1496,22 @@
       </c>
     </row>
     <row r="33" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -1514,55 +1521,95 @@
       </c>
     </row>
     <row r="34" spans="2:17" ht="21.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
       <c r="Q34" s="5">
         <f>SUM(Q12:Q33)</f>
         <v>11.9</v>
       </c>
     </row>
     <row r="35" spans="2:17" ht="31.35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:N14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:N15"/>
-    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:N25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B34:P34"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:N30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:N31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:N32"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:N22"/>
     <mergeCell ref="B23:D23"/>
@@ -1579,51 +1626,11 @@
     <mergeCell ref="E19:N19"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:N21"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B34:P34"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:N30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:N31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:N32"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:N29"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:N25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:N13"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:N14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:N15"/>
+    <mergeCell ref="F8:L8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{A3EB43F2-30F2-47DD-932F-F09808F0842B}"/>
